--- a/docs/20171205_lib2_ind/20171206.growth.xlsx
+++ b/docs/20171205_lib2_ind/20171206.growth.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>lib 1</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>Previous measurements, for reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:45</t>
-  </si>
-  <si>
-    <t>T2 - 15 min stall</t>
   </si>
   <si>
     <t>mins</t>
@@ -427,7 +421,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -465,7 +459,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="F2">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -474,10 +468,10 @@
       </c>
       <c r="B3">
         <f>1000 * E3</f>
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E3">
-        <v>0.20699999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="F3">
         <v>1.9E-2</v>
@@ -485,32 +479,32 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <f>1000 * E4</f>
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E4">
-        <v>0.23499999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="F4">
-        <v>1.9E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <f>1000 * E5</f>
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E5">
-        <v>0.184</v>
+        <v>0.192</v>
       </c>
       <c r="F5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -556,10 +550,10 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -574,26 +568,26 @@
       </c>
       <c r="D9">
         <f>(C9/B3)*B9</f>
-        <v>5.434782608695652E-3</v>
+        <v>5.7692307692307696E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>543.47826086956525</v>
+        <v>576.92307692307691</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>54.347826086956523</v>
+        <v>57.692307692307693</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -603,26 +597,26 @@
       </c>
       <c r="D10">
         <f>(C10/B4)*B10</f>
-        <v>6.3829787234042561E-4</v>
+        <v>6.912442396313364E-4</v>
       </c>
       <c r="F10">
         <f t="shared" ref="F10:F11" si="2">1000*100*D10</f>
-        <v>63.829787234042563</v>
+        <v>69.124423963133637</v>
       </c>
       <c r="H10">
         <f t="shared" ref="H10:H11" si="3">1000*10*D10</f>
-        <v>6.3829787234042561</v>
+        <v>6.9124423963133639</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>150</v>
@@ -632,21 +626,21 @@
       </c>
       <c r="D11">
         <f>(C11/B5)*B11</f>
-        <v>8.1521739130434789E-4</v>
+        <v>7.8124999999999993E-4</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>81.521739130434796</v>
+        <v>78.125</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>8.1521739130434785</v>
+        <v>7.8124999999999991</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,57 +659,54 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.06</v>
+      </c>
+      <c r="C14">
+        <v>0.06</v>
+      </c>
+      <c r="D14">
+        <v>0.06</v>
+      </c>
+      <c r="F14" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B14">
+      <c r="G14">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="H14" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D14">
+      <c r="I14">
         <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.01</v>
-      </c>
-      <c r="H14">
-        <v>0.01</v>
-      </c>
-      <c r="I14">
-        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="B15">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C15">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.10069444444444443</v>
       </c>
-      <c r="B15">
+      <c r="G15">
         <v>0.111</v>
       </c>
-      <c r="C15" s="2">
+      <c r="H15" s="2">
         <v>0.111</v>
       </c>
-      <c r="D15">
+      <c r="I15">
         <v>0.111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G15">
-        <v>0.152</v>
-      </c>
-      <c r="H15">
-        <v>0.152</v>
-      </c>
-      <c r="I15">
-        <v>0.152</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -723,140 +714,154 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="B16">
-        <v>9.7000000000000003E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C16">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G16">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I16">
         <v>0.10199999999999999</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="G16">
-        <v>0.66</v>
-      </c>
-      <c r="H16">
-        <v>0.72</v>
-      </c>
-      <c r="I16">
-        <v>0.66</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.16319444444444445</v>
       </c>
       <c r="B17">
-        <v>0.29899999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="C17">
-        <v>0.27400000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D17">
-        <v>0.30299999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.32700000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="H17">
-        <v>0.34399999999999997</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="I17">
-        <v>0.315</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="B18">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.317</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.19791666666666666</v>
       </c>
-      <c r="B18">
+      <c r="G18">
         <v>0.27100000000000002</v>
       </c>
-      <c r="C18">
+      <c r="H18">
         <v>0.248</v>
       </c>
-      <c r="D18">
+      <c r="I18">
         <v>0.248</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="H18">
-        <v>0.185</v>
-      </c>
-      <c r="I18">
-        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="B19">
+        <v>0.23</v>
+      </c>
+      <c r="C19">
+        <v>0.216</v>
+      </c>
+      <c r="D19">
+        <v>0.214</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.20138888888888887</v>
       </c>
-      <c r="B19">
+      <c r="G19">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C19">
+      <c r="H19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="D19">
+      <c r="I19">
         <v>0.311</v>
       </c>
-      <c r="E19" t="s">
+      <c r="J19" t="s">
         <v>13</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="G19">
-        <v>0.44</v>
-      </c>
-      <c r="H19">
-        <v>0.43</v>
-      </c>
-      <c r="I19">
-        <v>0.38</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.23402777777777781</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="B20">
-        <v>0.26</v>
+        <v>0.316</v>
       </c>
       <c r="C20">
-        <v>0.24</v>
+        <v>0.308</v>
       </c>
       <c r="D20">
-        <v>0.26400000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>0.23402777777777781</v>
+      </c>
+      <c r="G20">
+        <v>0.26</v>
+      </c>
+      <c r="H20">
+        <v>0.24</v>
+      </c>
+      <c r="I20">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -883,7 +888,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -902,16 +907,31 @@
       <c r="B29">
         <v>145</v>
       </c>
-      <c r="C29" s="3">
-        <f>B15</f>
+      <c r="C29">
+        <f>B16</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D29">
+        <f>C16</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E29">
+        <f>D16</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G29">
+        <v>145</v>
+      </c>
+      <c r="H29" s="3">
+        <f>G15</f>
         <v>0.111</v>
       </c>
-      <c r="D29" s="3">
-        <f>C15</f>
+      <c r="I29" s="3">
+        <f>H15</f>
         <v>0.111</v>
       </c>
-      <c r="E29" s="3">
-        <f>D15</f>
+      <c r="J29" s="3">
+        <f>I15</f>
         <v>0.111</v>
       </c>
     </row>
@@ -920,18 +940,33 @@
         <v>12</v>
       </c>
       <c r="B30">
+        <v>235</v>
+      </c>
+      <c r="C30">
+        <f>10*B17</f>
+        <v>2.84</v>
+      </c>
+      <c r="D30">
+        <f>10*C17</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="E30">
+        <f>10*D17</f>
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="G30">
         <v>240</v>
       </c>
-      <c r="C30" s="3">
-        <f>10*B17</f>
+      <c r="H30" s="3">
+        <f>10*G17</f>
         <v>2.9899999999999998</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" ref="D30:E30" si="4">10*C17</f>
+      <c r="I30" s="3">
+        <f>10*H17</f>
         <v>2.74</v>
       </c>
-      <c r="E30" s="3">
-        <f t="shared" si="4"/>
+      <c r="J30" s="3">
+        <f>10*I17</f>
         <v>3.03</v>
       </c>
     </row>
@@ -942,16 +977,31 @@
       <c r="B31">
         <v>290</v>
       </c>
-      <c r="C31" s="3">
-        <f>10*6*B19</f>
+      <c r="C31">
+        <f>10*6*B18</f>
+        <v>19.5</v>
+      </c>
+      <c r="D31">
+        <f>10*6*C18</f>
+        <v>18.18</v>
+      </c>
+      <c r="E31">
+        <f>10*6*D18</f>
+        <v>19.02</v>
+      </c>
+      <c r="G31">
+        <v>290</v>
+      </c>
+      <c r="H31" s="3">
+        <f>10*6*G19</f>
         <v>17.459999999999997</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" ref="D31:E31" si="5">10*6*C19</f>
+      <c r="I31" s="3">
+        <f>10*6*H19</f>
         <v>17.099999999999998</v>
       </c>
-      <c r="E31" s="3">
-        <f t="shared" si="5"/>
+      <c r="J31" s="3">
+        <f>10*6*I19</f>
         <v>18.66</v>
       </c>
     </row>
@@ -960,18 +1010,33 @@
         <v>14</v>
       </c>
       <c r="B32">
+        <v>340</v>
+      </c>
+      <c r="C32">
+        <f>10*6*6*B20</f>
+        <v>113.76</v>
+      </c>
+      <c r="D32">
+        <f>10*6*6*C20</f>
+        <v>110.88</v>
+      </c>
+      <c r="E32">
+        <f>10*6*6*D20</f>
+        <v>113.04</v>
+      </c>
+      <c r="G32">
         <v>337</v>
       </c>
-      <c r="C32" s="3">
-        <f>10*6*6*B20</f>
+      <c r="H32" s="3">
+        <f>10*6*6*G20</f>
         <v>93.600000000000009</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" ref="D32:E32" si="6">10*6*6*C20</f>
+      <c r="I32" s="3">
+        <f>10*6*6*H20</f>
         <v>86.399999999999991</v>
       </c>
-      <c r="E32" s="3">
-        <f t="shared" si="6"/>
+      <c r="J32" s="3">
+        <f>10*6*6*I20</f>
         <v>95.04</v>
       </c>
     </row>

--- a/docs/20171205_lib2_ind/20171206.growth.xlsx
+++ b/docs/20171205_lib2_ind/20171206.growth.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B29" sqref="B29:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -904,21 +904,6 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29">
-        <v>145</v>
-      </c>
-      <c r="C29">
-        <f>B16</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D29">
-        <f>C16</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E29">
-        <f>D16</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
       <c r="G29">
         <v>145</v>
       </c>
@@ -939,21 +924,6 @@
       <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B30">
-        <v>235</v>
-      </c>
-      <c r="C30">
-        <f>10*B17</f>
-        <v>2.84</v>
-      </c>
-      <c r="D30">
-        <f>10*C17</f>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="E30">
-        <f>10*D17</f>
-        <v>2.9499999999999997</v>
-      </c>
       <c r="G30">
         <v>240</v>
       </c>
@@ -974,21 +944,6 @@
       <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B31">
-        <v>290</v>
-      </c>
-      <c r="C31">
-        <f>10*6*B18</f>
-        <v>19.5</v>
-      </c>
-      <c r="D31">
-        <f>10*6*C18</f>
-        <v>18.18</v>
-      </c>
-      <c r="E31">
-        <f>10*6*D18</f>
-        <v>19.02</v>
-      </c>
       <c r="G31">
         <v>290</v>
       </c>
@@ -1008,21 +963,6 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
-      </c>
-      <c r="B32">
-        <v>340</v>
-      </c>
-      <c r="C32">
-        <f>10*6*6*B20</f>
-        <v>113.76</v>
-      </c>
-      <c r="D32">
-        <f>10*6*6*C20</f>
-        <v>110.88</v>
-      </c>
-      <c r="E32">
-        <f>10*6*6*D20</f>
-        <v>113.04</v>
       </c>
       <c r="G32">
         <v>337</v>

--- a/docs/20171205_lib2_ind/20171206.growth.xlsx
+++ b/docs/20171205_lib2_ind/20171206.growth.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -104,7 +104,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -134,13 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,6 +154,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,14 +427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -904,6 +913,21 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
+      <c r="B29">
+        <v>145</v>
+      </c>
+      <c r="C29" s="6">
+        <f>B16</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" ref="D29:E29" si="4">C16</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="4"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="G29">
         <v>145</v>
       </c>
@@ -924,6 +948,21 @@
       <c r="A30" t="s">
         <v>12</v>
       </c>
+      <c r="B30">
+        <v>235</v>
+      </c>
+      <c r="C30">
+        <f>10*B17</f>
+        <v>2.84</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:E30" si="5">10*C17</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>2.9499999999999997</v>
+      </c>
       <c r="G30">
         <v>240</v>
       </c>
@@ -944,6 +983,21 @@
       <c r="A31" t="s">
         <v>13</v>
       </c>
+      <c r="B31">
+        <v>290</v>
+      </c>
+      <c r="C31">
+        <f>10*6*B18</f>
+        <v>19.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:E31" si="6">10*6*C18</f>
+        <v>18.18</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>19.02</v>
+      </c>
       <c r="G31">
         <v>290</v>
       </c>
@@ -964,6 +1018,21 @@
       <c r="A32" t="s">
         <v>14</v>
       </c>
+      <c r="B32">
+        <v>340</v>
+      </c>
+      <c r="C32">
+        <f>10*6*6*B20</f>
+        <v>113.76</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:E32" si="7">10*6*6*C20</f>
+        <v>110.88</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>113.04</v>
+      </c>
       <c r="G32">
         <v>337</v>
       </c>
@@ -985,5 +1054,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>